--- a/Assets/Excel/ConditionDialogueBinding.xlsx
+++ b/Assets/Excel/ConditionDialogueBinding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35293DEC-FA4A-4935-8E4D-FB5B559983B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01D8754-F411-470E-9E83-3C544D5307FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2148" yWindow="2796" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="2484" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>characterId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -376,9 +380,10 @@
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,8 +393,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -397,6 +405,9 @@
         <v>3</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/ConditionDialogueBinding.xlsx
+++ b/Assets/Excel/ConditionDialogueBinding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01D8754-F411-470E-9E83-3C544D5307FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF9D118-2505-44EE-AE1C-8907A21D9B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="2484" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="648" yWindow="240" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>characterId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -411,6 +411,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/ConditionDialogueBinding.xlsx
+++ b/Assets/Excel/ConditionDialogueBinding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF9D118-2505-44EE-AE1C-8907A21D9B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183DC90F-91F3-4CF9-8BBB-8CF0F7D7AB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="648" yWindow="240" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>characterId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -453,6 +453,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
